--- a/Collections/Ukraine/#Ukraine#Commercial#[2004-present]#circulation_quality.xlsx
+++ b/Collections/Ukraine/#Ukraine#Commercial#[2004-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Ukraine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFD4CB1-AEF7-4855-BB05-0E2F432607D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEBF6B-C0CA-4828-9759-0C5ACA542C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
     <sheet name="10гривень" sheetId="13" r:id="rId2"/>
     <sheet name="Links" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 1гривня'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10гривень'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -121,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="41">
   <si>
     <t>-</t>
   </si>
@@ -135,12 +139,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>NBU</t>
   </si>
   <si>
@@ -244,6 +242,12 @@
   </si>
   <si>
     <t>Communications and Cybersecurity Troops of the Armed Forces of Ukraine</t>
+  </si>
+  <si>
+    <t>Subtype_1#Composition</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -490,7 +494,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,40 +570,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -607,14 +601,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="19">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -744,95 +739,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -854,9 +760,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="28" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1165,52 +1071,51 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>8</v>
+      <c r="F1" s="29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1218,20 +1123,20 @@
         <v>2004</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="38" t="str">
-        <f t="shared" ref="G3:G26" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="G3" s="30" t="str">
+        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1240,19 +1145,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="38" t="str">
+      <c r="G4" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1264,7 +1169,9 @@
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1181,7 @@
       <c r="F5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="38" t="str">
+      <c r="G5" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1286,7 +1193,9 @@
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1205,7 @@
       <c r="F6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="38" t="str">
+      <c r="G6" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1308,7 +1217,9 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1229,7 @@
       <c r="F7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="38" t="str">
+      <c r="G7" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1330,7 +1241,9 @@
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1253,7 @@
       <c r="F8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="38" t="str">
+      <c r="G8" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1350,19 +1263,19 @@
         <v>2010</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="38" t="str">
+      <c r="G9" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1374,7 +1287,9 @@
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1299,7 @@
       <c r="F10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="38" t="str">
+      <c r="G10" s="30" t="str">
         <f t="shared" ref="G10" si="1">IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -1394,19 +1309,19 @@
         <v>2012</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="38" t="str">
+      <c r="G11" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1418,7 +1333,9 @@
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1345,7 @@
       <c r="F12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="38" t="str">
+      <c r="G12" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1440,7 +1357,9 @@
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1369,7 @@
       <c r="F13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="38" t="str">
+      <c r="G13" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1462,7 +1381,9 @@
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1393,7 @@
       <c r="F14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="38" t="str">
+      <c r="G14" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1481,18 +1402,18 @@
       <c r="A15" s="5">
         <v>2015</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>28</v>
+      <c r="B15" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="38" t="str">
+      <c r="G15" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1502,17 +1423,17 @@
         <v>2016</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="38" t="str">
+      <c r="G16" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1536,7 +1457,7 @@
       <c r="F17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="38" t="str">
+      <c r="G17" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1560,7 +1481,7 @@
       <c r="F18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="38" t="str">
+      <c r="G18" s="30" t="str">
         <f t="shared" ref="G18:G26" si="2">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -1584,7 +1505,7 @@
       <c r="F19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="38" t="str">
+      <c r="G19" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1608,7 +1529,7 @@
       <c r="F20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="38" t="str">
+      <c r="G20" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1632,7 +1553,7 @@
       <c r="F21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="38" t="str">
+      <c r="G21" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1656,7 +1577,7 @@
       <c r="F22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="38" t="str">
+      <c r="G22" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1680,7 +1601,7 @@
       <c r="F23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="38" t="str">
+      <c r="G23" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1704,7 +1625,7 @@
       <c r="F24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="38" t="str">
+      <c r="G24" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1728,7 +1649,7 @@
       <c r="F25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="38" t="str">
+      <c r="G25" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1752,15 +1673,15 @@
       <c r="F26" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="38" t="str">
+      <c r="G26" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F4 F15">
@@ -1775,7 +1696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11">
+  <conditionalFormatting sqref="F11 F9">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1788,12 +1709,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 F3:F4">
-    <cfRule type="containsText" dxfId="26" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11">
-    <cfRule type="containsText" dxfId="25" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1822,12 +1743,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F26">
-    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1844,7 +1765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1861,7 +1782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1878,7 +1799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1895,7 +1816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1912,7 +1833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1929,7 +1850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1946,7 +1867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1963,7 +1884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1981,53 +1902,53 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.08984375" style="9" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
@@ -2543,12 +2464,12 @@
         <v>2022</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="23">
         <v>10000000</v>
       </c>
@@ -2565,12 +2486,12 @@
         <v>2023</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="23">
         <v>10000000</v>
       </c>
@@ -2587,12 +2508,12 @@
         <v>2023</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="23">
         <v>10000000</v>
       </c>
@@ -2609,12 +2530,12 @@
         <v>2023</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="23">
         <v>10000000</v>
       </c>
@@ -2631,12 +2552,12 @@
         <v>2023</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="23">
         <v>10000000</v>
       </c>
@@ -2653,12 +2574,12 @@
         <v>2024</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="23">
         <v>10000000</v>
       </c>
@@ -2675,12 +2596,12 @@
         <v>2024</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="23">
         <v>10000000</v>
       </c>
@@ -2697,12 +2618,12 @@
         <v>2024</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="23">
         <v>10000000</v>
       </c>
@@ -2719,12 +2640,12 @@
         <v>2024</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="23">
         <v>10000000</v>
       </c>
@@ -2749,9 +2670,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{9C985906-1F40-4F9F-A28B-610F2E45FBC5}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
@@ -2767,11 +2688,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F27 F29 F31">
+  <conditionalFormatting sqref="F27 F25 F29 F31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2784,11 +2705,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 F27 F29 F31">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26 F28 F30 F32">
+  <conditionalFormatting sqref="F26 F24 F28 F30 F32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2801,7 +2722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26 F28 F30 F32">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2818,7 +2739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2848,13 +2769,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2862,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2873,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2884,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2895,10 +2816,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2906,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="24"/>
     </row>

--- a/Collections/Ukraine/#Ukraine#Commercial#[2004-present]#circulation_quality.xlsx
+++ b/Collections/Ukraine/#Ukraine#Commercial#[2004-present]#circulation_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Ukraine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEBF6B-C0CA-4828-9759-0C5ACA542C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21709AD8-A960-4D45-AE2C-DECD0D165157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 1гривня" sheetId="10" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="43">
   <si>
     <t>-</t>
   </si>
@@ -248,6 +251,12 @@
   </si>
   <si>
     <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>National Police of Ukraine</t>
+  </si>
+  <si>
+    <t>National Guard of Ukraine</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,6 +594,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,6 +605,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,7 +616,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
@@ -760,9 +791,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1065,13 +1096,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1085,14 +1116,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1132,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1303,7 @@
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="37">
         <v>1</v>
       </c>
       <c r="G9" s="30" t="str">
@@ -1675,6 +1706,30 @@
       </c>
       <c r="G26" s="30" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="30" t="str">
+        <f t="shared" ref="G27" si="3">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1696,7 +1751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F9">
+  <conditionalFormatting sqref="F9 F11">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1709,16 +1764,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 F3:F4">
-    <cfRule type="containsText" dxfId="18" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11">
-    <cfRule type="containsText" dxfId="17" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F26">
+  <conditionalFormatting sqref="F17:F27">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1743,12 +1798,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F26">
-    <cfRule type="containsText" dxfId="15" priority="53" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F17:F27">
+    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1765,7 +1820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1782,7 +1837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1799,7 +1854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1816,7 +1871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1833,7 +1888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1850,7 +1905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1867,7 +1922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1884,7 +1939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1898,11 +1953,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C985906-1F40-4F9F-A28B-610F2E45FBC5}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1916,14 +1971,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
@@ -1934,7 +1989,7 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
@@ -2654,6 +2709,50 @@
       </c>
       <c r="G32" s="15" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="32">
+        <v>2025</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f t="shared" ref="G33:G34" si="4">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="32">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2676,7 +2775,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2688,11 +2787,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27 F25 F29 F31">
+  <conditionalFormatting sqref="F25 F27 F29 F31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25 F27 F29 F31">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F26 F28 F30 F32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 F26 F28 F30 F32">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2704,12 +2837,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25 F27 F29 F31">
+  <conditionalFormatting sqref="F23">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24 F28 F30 F32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2721,12 +2854,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26 F28 F30 F32">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="F34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2738,9 +2871,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
